--- a/input/all_printers_list_of_support/Druckerliste_Support_20062023.xlsx
+++ b/input/all_printers_list_of_support/Druckerliste_Support_20062023.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$349</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1013">
   <si>
     <t>Standort</t>
   </si>
@@ -3044,7 +3044,28 @@
     <t>160.63.178.172</t>
   </si>
   <si>
-    <t>Unkown</t>
+    <t>PSTVA3157</t>
+  </si>
+  <si>
+    <t>160.63.178.184</t>
+  </si>
+  <si>
+    <t>Drucker von ADM steht vermutlich bei B126ETJ</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>PSTVA9679</t>
+  </si>
+  <si>
+    <t>10.74.25.21</t>
+  </si>
+  <si>
+    <t>Büro Leiter Bassersdorf</t>
   </si>
 </sst>
 </file>
@@ -3386,16 +3407,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L347"/>
+  <dimension ref="A1:L349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F290" sqref="F290"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I334" sqref="I334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -13539,7 +13563,7 @@
         <v>16</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>16</v>
@@ -13554,7 +13578,7 @@
         <v>16</v>
       </c>
       <c r="K288" s="4" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="L288" s="3" t="s">
         <v>1001</v>
@@ -13590,45 +13614,46 @@
         <v>16</v>
       </c>
       <c r="K289" s="4" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="L289" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K290" s="1" t="s">
-        <v>49</v>
+      <c r="A290" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K290" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -13636,34 +13661,34 @@
         <v>828</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>509</v>
+        <v>405</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -13671,13 +13696,13 @@
         <v>828</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>833</v>
+        <v>509</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>16</v>
@@ -13706,13 +13731,13 @@
         <v>828</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>16</v>
@@ -13741,13 +13766,13 @@
         <v>828</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>16</v>
@@ -13756,10 +13781,10 @@
         <v>17</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I294" s="1" t="s">
         <v>16</v>
@@ -13776,13 +13801,13 @@
         <v>828</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>16</v>
@@ -13791,10 +13816,10 @@
         <v>17</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>16</v>
@@ -13803,7 +13828,7 @@
         <v>16</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -13811,19 +13836,19 @@
         <v>828</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>17</v>
@@ -13838,7 +13863,7 @@
         <v>16</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -13846,19 +13871,19 @@
         <v>828</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>312</v>
+        <v>845</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>17</v>
@@ -13881,19 +13906,19 @@
         <v>828</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>850</v>
+        <v>312</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>17</v>
@@ -13916,13 +13941,13 @@
         <v>828</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>27</v>
@@ -13951,13 +13976,13 @@
         <v>828</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>27</v>
@@ -13966,19 +13991,19 @@
         <v>27</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -13986,13 +14011,13 @@
         <v>828</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>27</v>
@@ -14001,19 +14026,19 @@
         <v>27</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -14021,13 +14046,13 @@
         <v>828</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>27</v>
@@ -14056,13 +14081,13 @@
         <v>828</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>312</v>
+        <v>845</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>27</v>
@@ -14091,13 +14116,13 @@
         <v>828</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>866</v>
+        <v>312</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>27</v>
@@ -14126,22 +14151,22 @@
         <v>828</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>16</v>
@@ -14158,28 +14183,28 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>872</v>
+        <v>828</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>16</v>
@@ -14199,22 +14224,22 @@
         <v>839</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>16</v>
@@ -14231,13 +14256,13 @@
         <v>872</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>405</v>
+        <v>839</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>16</v>
@@ -14246,19 +14271,19 @@
         <v>17</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
@@ -14269,31 +14294,31 @@
         <v>405</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -14304,10 +14329,10 @@
         <v>405</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>27</v>
@@ -14339,10 +14364,10 @@
         <v>405</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>27</v>
@@ -14374,16 +14399,16 @@
         <v>405</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>17</v>
@@ -14398,10 +14423,7 @@
         <v>16</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="L312" s="1" t="s">
-        <v>888</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
@@ -14409,13 +14431,13 @@
         <v>872</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>889</v>
+        <v>405</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>16</v>
@@ -14436,21 +14458,24 @@
         <v>16</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>18</v>
+        <v>887</v>
+      </c>
+      <c r="L313" s="1" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>16</v>
@@ -14459,7 +14484,7 @@
         <v>17</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>16</v>
@@ -14479,13 +14504,13 @@
         <v>892</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>16</v>
@@ -14514,13 +14539,13 @@
         <v>892</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>527</v>
+        <v>896</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>16</v>
@@ -14529,7 +14554,7 @@
         <v>17</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>16</v>
@@ -14542,9 +14567,6 @@
       </c>
       <c r="K316" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L316" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -14552,13 +14574,13 @@
         <v>892</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>902</v>
+        <v>527</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>16</v>
@@ -14567,10 +14589,10 @@
         <v>17</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I317" s="1" t="s">
         <v>16</v>
@@ -14580,6 +14602,9 @@
       </c>
       <c r="K317" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -14587,13 +14612,13 @@
         <v>892</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>842</v>
+        <v>902</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>16</v>
@@ -14602,10 +14627,10 @@
         <v>17</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I318" s="1" t="s">
         <v>16</v>
@@ -14614,7 +14639,7 @@
         <v>16</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -14622,13 +14647,13 @@
         <v>892</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>907</v>
+        <v>842</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>16</v>
@@ -14637,33 +14662,33 @@
         <v>17</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>408</v>
+        <v>32</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>16</v>
@@ -14672,36 +14697,33 @@
         <v>17</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L320" s="1" t="s">
-        <v>914</v>
+        <v>408</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>16</v>
@@ -14710,7 +14732,7 @@
         <v>17</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>16</v>
@@ -14723,6 +14745,9 @@
       </c>
       <c r="K321" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="L321" s="1" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
@@ -14730,13 +14755,13 @@
         <v>915</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>16</v>
@@ -14765,13 +14790,13 @@
         <v>915</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>16</v>
@@ -14800,13 +14825,13 @@
         <v>915</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>16</v>
@@ -14815,7 +14840,7 @@
         <v>17</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>16</v>
@@ -14828,9 +14853,6 @@
       </c>
       <c r="K324" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L324" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
@@ -14838,13 +14860,13 @@
         <v>915</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>16</v>
@@ -14853,10 +14875,10 @@
         <v>17</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I325" s="1" t="s">
         <v>16</v>
@@ -14866,6 +14888,9 @@
       </c>
       <c r="K325" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="L325" s="1" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
@@ -14873,13 +14898,13 @@
         <v>915</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>16</v>
@@ -14888,10 +14913,10 @@
         <v>17</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>16</v>
@@ -14900,7 +14925,7 @@
         <v>16</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
@@ -14908,22 +14933,22 @@
         <v>915</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>16</v>
@@ -14935,10 +14960,7 @@
         <v>16</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="L327" s="1" t="s">
-        <v>939</v>
+        <v>32</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
@@ -14946,34 +14968,37 @@
         <v>915</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>408</v>
+        <v>938</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
@@ -14981,34 +15006,34 @@
         <v>915</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
@@ -15016,13 +15041,13 @@
         <v>915</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>16</v>
@@ -15051,13 +15076,13 @@
         <v>915</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>16</v>
@@ -15086,13 +15111,13 @@
         <v>915</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>16</v>
@@ -15121,19 +15146,19 @@
         <v>915</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>17</v>
@@ -15148,7 +15173,7 @@
         <v>16</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
@@ -15156,19 +15181,19 @@
         <v>915</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>960</v>
+        <v>17</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>17</v>
@@ -15183,10 +15208,7 @@
         <v>16</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="L334" s="1" t="s">
-        <v>939</v>
+        <v>62</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
@@ -15194,19 +15216,19 @@
         <v>915</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>17</v>
+        <v>960</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>17</v>
@@ -15221,21 +15243,24 @@
         <v>16</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>18</v>
+        <v>938</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>963</v>
+        <v>915</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>16</v>
@@ -15244,7 +15269,7 @@
         <v>17</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>16</v>
@@ -15264,13 +15289,13 @@
         <v>963</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>16</v>
@@ -15299,13 +15324,13 @@
         <v>963</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>16</v>
@@ -15334,13 +15359,13 @@
         <v>963</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>405</v>
+        <v>970</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>16</v>
@@ -15349,7 +15374,7 @@
         <v>17</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>16</v>
@@ -15362,9 +15387,6 @@
       </c>
       <c r="K339" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L339" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
@@ -15372,13 +15394,13 @@
         <v>963</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>976</v>
+        <v>405</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>16</v>
@@ -15387,10 +15409,10 @@
         <v>17</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>16</v>
@@ -15400,6 +15422,9 @@
       </c>
       <c r="K340" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
@@ -15407,25 +15432,25 @@
         <v>963</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>579</v>
+        <v>976</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I341" s="1" t="s">
         <v>16</v>
@@ -15436,46 +15461,41 @@
       <c r="K341" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L341" s="1" t="s">
-        <v>981</v>
-      </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J342" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K342" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L342" s="1" t="s">
-        <v>984</v>
+      <c r="B342" s="4"/>
+      <c r="C342" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I342" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K342" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L342" s="4" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
@@ -15483,13 +15503,13 @@
         <v>963</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>309</v>
+        <v>579</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>16</v>
@@ -15513,7 +15533,7 @@
         <v>18</v>
       </c>
       <c r="L343" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
@@ -15521,16 +15541,16 @@
         <v>963</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>27</v>
@@ -15548,10 +15568,10 @@
         <v>16</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>938</v>
+        <v>18</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
@@ -15559,16 +15579,16 @@
         <v>963</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>991</v>
+        <v>309</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>27</v>
@@ -15589,7 +15609,7 @@
         <v>18</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
@@ -15597,16 +15617,16 @@
         <v>963</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>995</v>
+        <v>405</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>27</v>
@@ -15627,7 +15647,7 @@
         <v>938</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
@@ -15635,41 +15655,116 @@
         <v>963</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="L348" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="E347" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H347" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I347" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J347" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K347" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L347" s="1" t="s">
+      <c r="E349" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L349" s="1" t="s">
         <v>984</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L347"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/input/all_printers_list_of_support/Druckerliste_Support_20062023.xlsx
+++ b/input/all_printers_list_of_support/Druckerliste_Support_20062023.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$349</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -3062,10 +3062,10 @@
     <t>PSTVA9679</t>
   </si>
   <si>
-    <t>10.74.25.21</t>
-  </si>
-  <si>
     <t>Büro Leiter Bassersdorf</t>
+  </si>
+  <si>
+    <t>10.74.25.71</t>
   </si>
 </sst>
 </file>
@@ -3410,8 +3410,8 @@
   <dimension ref="A1:L349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I334" sqref="I334"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E331" sqref="E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15471,31 +15471,31 @@
         <v>1010</v>
       </c>
       <c r="D342" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I342" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K342" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L342" s="4" t="s">
         <v>1011</v>
-      </c>
-      <c r="E342" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F342" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G342" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H342" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I342" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J342" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K342" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L342" s="4" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
